--- a/trend_results/Rivers/OrouaatMangawhata_44ac812c5f.xlsx
+++ b/trend_results/Rivers/OrouaatMangawhata_44ac812c5f.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0232697904235028</v>
+        <v>0.976730209576497</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0110101381267682</v>
+        <v>0.988989861873232</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0035049309594786</v>
+        <v>0.996495069040521</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>7.89339969908462e-06</v>
+        <v>0.999992106600301</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">

--- a/trend_results/Rivers/OrouaatMangawhata_44ac812c5f.xlsx
+++ b/trend_results/Rivers/OrouaatMangawhata_44ac812c5f.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.963007785610409</v>
+        <v>0.966409853165919</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.71875</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0825</v>
+        <v>0.1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0189964772542868</v>
+        <v>0.0202338556505223</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.0015275563798911</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0510844517026542</v>
+        <v>0.0313336566751036</v>
       </c>
       <c r="N2" t="n">
-        <v>23.0260330354991</v>
+        <v>20.2338556505223</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.976730209576497</v>
+        <v>0.587517215582505</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.896551724137931</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.315</v>
+        <v>10.27</v>
       </c>
       <c r="K3" t="n">
-        <v>0.144243646978022</v>
+        <v>0.0074983392631961</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0189666964409427</v>
+        <v>-0.0401373626373627</v>
       </c>
       <c r="M3" t="n">
-        <v>0.264380027220656</v>
+        <v>0.13145854396591</v>
       </c>
       <c r="N3" t="n">
-        <v>1.39838727075155</v>
+        <v>0.07301206682761539</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.166751509395115</v>
+        <v>0.139725751656726</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5344827586206899</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0.019</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0009207983193277</v>
+        <v>0.0009595008756567</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0008611077517691</v>
+        <v>-0.000467538209242</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0025759733451826</v>
+        <v>0.0025533252280621</v>
       </c>
       <c r="N4" t="n">
-        <v>4.84630694383017</v>
+        <v>5.0500046087197</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.600615938551783</v>
+        <v>0.616071025920284</v>
       </c>
       <c r="G5" t="n">
         <v>0.0172413793103448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.913793103448276</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>398.5</v>
+        <v>361.5</v>
       </c>
       <c r="K5" t="n">
-        <v>-9.672125435540069</v>
+        <v>-9.46004421983575</v>
       </c>
       <c r="L5" t="n">
-        <v>-71.0624113337991</v>
+        <v>-63.8884125161015</v>
       </c>
       <c r="M5" t="n">
-        <v>44.7955059905055</v>
+        <v>40.2357002869938</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.42713310804017</v>
+        <v>-2.61688636786605</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -929,39 +929,39 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.587389440311434</v>
+        <v>0.0433404224733468</v>
       </c>
       <c r="G6" t="n">
-        <v>0.215686274509804</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H6" t="n">
-        <v>0.803921568627451</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0328435351820479</v>
+        <v>0.0235469823114104</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.0018120205769524</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0057525815934156</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0051062125389357</v>
+        <v>0.0048557873592782</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>7.69534096976149</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1020,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.825028029361292</v>
+        <v>0.0820378700522528</v>
       </c>
       <c r="G7" t="n">
-        <v>0.120689655172414</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="H7" t="n">
-        <v>0.603448275862069</v>
+        <v>0.568965517241379</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0145</v>
+        <v>0.011</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0012793345008756</v>
+        <v>0.0006665234765234</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0036403654485049</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0009965537118197</v>
+        <v>0.0010017316885842</v>
       </c>
       <c r="N7" t="n">
-        <v>-8.822996557763149</v>
+        <v>6.0593043320316</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,11 +1115,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.350820183976733</v>
+        <v>0.0057274442052447</v>
       </c>
       <c r="G8" t="n">
         <v>0.137931034482759</v>
@@ -1131,19 +1131,19 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.581</v>
+        <v>0.5335</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0435657623626373</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0402571000047589</v>
+        <v>0.0166916441846185</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0454087016851975</v>
+        <v>0.07755186276344871</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>8.16602855906979</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.988989861873232</v>
+        <v>0.067454127771573</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.603448275862069</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.66</v>
+        <v>7.64</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0392976688583383</v>
+        <v>-0.021153474903475</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0089981142303058</v>
+        <v>-0.0529129595288439</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0729227759295502</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.513024397628437</v>
+        <v>-0.276877943762761</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1293,35 +1293,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.354694057507113</v>
+        <v>0.0045437337262196</v>
       </c>
       <c r="G10" t="n">
         <v>0.0344827586206897</v>
       </c>
       <c r="H10" t="n">
-        <v>0.913793103448276</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0.697</v>
+        <v>0.6565</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0027427197802197</v>
+        <v>0.0432385624428794</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0494801325844586</v>
+        <v>0.0126144515017673</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0403639047058242</v>
+        <v>0.0807834709556227</v>
       </c>
       <c r="N10" t="n">
-        <v>0.393503555268261</v>
+        <v>6.5862242868057</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.968979034574043</v>
+        <v>0.0005367986363365</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0344827586206897</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.724137931034483</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>0.865</v>
       </c>
       <c r="K11" t="n">
-        <v>-6.80590062111801</v>
+        <v>0.0512999664808875</v>
       </c>
       <c r="L11" t="n">
-        <v>-17.3928571428571</v>
+        <v>0.0130832668308389</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.569929785989707</v>
+        <v>0.09780012776040729</v>
       </c>
       <c r="N11" t="n">
-        <v>-22.6863354037267</v>
+        <v>5.93063196310839</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.64454144330569</v>
+        <v>0.312112814963759</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.827586206896552</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.96</v>
+        <v>0.054</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0198793541364296</v>
+        <v>0.0011660015961691</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0841619977456588</v>
+        <v>-0.0054711676192384</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0103444695068967</v>
+        <v>0.0065243612827697</v>
       </c>
       <c r="N12" t="n">
-        <v>-2.07076605587808</v>
+        <v>2.15926221512814</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8988276500969949</v>
+        <v>0.486621711362125</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.827586206896552</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.055</v>
+        <v>6.235</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0056320673900628</v>
+        <v>0.0489939637826962</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0163995974855296</v>
+        <v>-1.44593147815188</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0011294588895065</v>
+        <v>1.08601661798395</v>
       </c>
       <c r="N13" t="n">
-        <v>-10.2401225273869</v>
+        <v>0.785789314878849</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.973728109027673</v>
+        <v>0.0053986104372459</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.982758620689655</v>
+        <v>0.670886075949367</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.785</v>
+        <v>0.19</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.35664285714286</v>
+        <v>-0.030103021978022</v>
       </c>
       <c r="L14" t="n">
-        <v>-5.91860923280628</v>
+        <v>-0.0649441563173456</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.153544002810373</v>
+        <v>-0.0059590518362779</v>
       </c>
       <c r="N14" t="n">
-        <v>-23.4510433386838</v>
+        <v>-15.8436957779063</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.000114374555366</v>
+        <v>0.982776681833361</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.721518987341772</v>
+        <v>0.8050847457627121</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.28</v>
+        <v>10.1</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.06498897259499301</v>
+        <v>0.0328754608511003</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.102297523011853</v>
+        <v>0.004834192955936</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.030103021978022</v>
+        <v>0.073116469517743</v>
       </c>
       <c r="N15" t="n">
-        <v>-23.2103473553547</v>
+        <v>0.325499612387132</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.996495069040521</v>
+        <v>0.0010499107781552</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.822033898305085</v>
+        <v>0.389830508474576</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.105</v>
+        <v>0.017</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0526620789331487</v>
+        <v>0.0009798792756539</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0198486856238727</v>
+        <v>0.0004839618989113</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0935231901124044</v>
+        <v>0.0014539899617018</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5211487276907339</v>
+        <v>5.76399573914073</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0004210598396142</v>
+        <v>0.615273763322752</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H17" t="n">
-        <v>0.398305084745763</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.016</v>
+        <v>363.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0011281853281853</v>
+        <v>-2.9958988380041</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006307134663011</v>
+        <v>-20.8844144774453</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001656462585034</v>
+        <v>15.8814248407927</v>
       </c>
       <c r="N17" t="n">
-        <v>7.0511583011583</v>
+        <v>-0.824181248419285</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.249973331127224</v>
+        <v>8.11423816161944e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.309090909090909</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8050847457627121</v>
+        <v>0.7</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>372</v>
+        <v>0.0231323165304086</v>
       </c>
       <c r="K18" t="n">
-        <v>6.99043062200957</v>
+        <v>0.002361001325826</v>
       </c>
       <c r="L18" t="n">
-        <v>-9.613156795689539</v>
+        <v>0.0009325267902694</v>
       </c>
       <c r="M18" t="n">
-        <v>24.6405912072701</v>
+        <v>0.0041498170451292</v>
       </c>
       <c r="N18" t="n">
-        <v>1.87914801666924</v>
+        <v>10.2065062213825</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0004242134383248</v>
+        <v>0.9985567887685</v>
       </c>
       <c r="G19" t="n">
-        <v>0.354545454545455</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H19" t="n">
-        <v>0.663636363636364</v>
+        <v>0.491525423728814</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0213013400341268</v>
+        <v>0.0185</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0016740366653478</v>
+        <v>-0.0016204525288376</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0026635978552259</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0034245184501475</v>
+        <v>-0.0007490989293154</v>
       </c>
       <c r="N19" t="n">
-        <v>7.85883264933511</v>
+        <v>-8.759202858581739</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.998780018896167</v>
+        <v>0.9032290548540231</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0593220338983051</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H20" t="n">
-        <v>0.508474576271186</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0205</v>
+        <v>0.6105</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0017107728337236</v>
+        <v>-0.0116110008525957</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0026741955400312</v>
+        <v>-0.0309019876523765</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0008245697392111</v>
+        <v>0.0010552529117822</v>
       </c>
       <c r="N20" t="n">
-        <v>-8.34523333523733</v>
+        <v>-1.90188384153901</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.69292147897713</v>
+        <v>0.999319835285892</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0677966101694915</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.923728813559322</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5931999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0033394371203876</v>
+        <v>0.0180472243390033</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0237178933711443</v>
+        <v>0.008699795342110499</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0126115779313144</v>
+        <v>0.0274624060150375</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.562952987253473</v>
+        <v>0.237463478144781</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,46 +2370,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999992106600301</v>
+        <v>0.573428644334762</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H22" t="n">
-        <v>0.512820512820513</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>7.6</v>
+        <v>0.71375</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0241777903092778</v>
+        <v>-0.0027594436813186</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0154603174603175</v>
+        <v>-0.0224694447702903</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0346208530805687</v>
+        <v>0.0147578235942551</v>
       </c>
       <c r="N22" t="n">
-        <v>0.318128819858918</v>
+        <v>-0.386612074440442</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_12c</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.468383926011026</v>
+        <v>0.897758519250512</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.889830508474576</v>
+        <v>0.754237288135593</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.697</v>
+        <v>1.02</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000797898938997</v>
+        <v>-0.0251229649631191</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0175106906611126</v>
+        <v>-0.0422622330113465</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0199399979664457</v>
+        <v>0.0056831409884656</v>
       </c>
       <c r="N23" t="n">
-        <v>0.114476174891968</v>
+        <v>-2.46303578069795</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.447319029986203</v>
+        <v>0.223417010183795</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6610169491525421</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>32.5</v>
+        <v>0.055</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.000741875423155</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.00343406593407</v>
+        <v>-0.0010649702486801</v>
       </c>
       <c r="M24" t="n">
-        <v>1.35028958658446</v>
+        <v>0.0026758241758241</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.34886440573644</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.796854740181428</v>
+        <v>0.289599497087188</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.788135593220339</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.993</v>
+        <v>7.825</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0116817697228145</v>
+        <v>0.0863731823133763</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0410418896836352</v>
+        <v>-0.284224134821598</v>
       </c>
       <c r="M25" t="n">
-        <v>0.011160775354836</v>
+        <v>0.424602234862651</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.17641185526833</v>
+        <v>1.10381063659267</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2721,188 +2721,6 @@
         </is>
       </c>
       <c r="W25" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Oroua at Mangawhata</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.173643535542901</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.6610169491525421</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.0545</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.0009018518518518</v>
-      </c>
-      <c r="L26" t="n">
-        <v>-0.0007617672104762001</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.0027212454135425</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.65477404009514</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>1806649.9</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5525867</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>Mana_12c</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Oroua at Mangawhata</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.365687884905389</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.9830508474576271</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5.925</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.0480748358547012</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-0.284224134821598</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.29454646141593</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.811389634678501</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>1806649.9</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5525867</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Mana_12c</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/OrouaatMangawhata_44ac812c5f.xlsx
+++ b/trend_results/Rivers/OrouaatMangawhata_44ac812c5f.xlsx
@@ -130,46 +130,46 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
     <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -648,37 +648,37 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.966409853165919</v>
+        <v>0.875396487761023</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.757575757575758</v>
+        <v>0.8125</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.1475</v>
       </c>
       <c r="K2">
-        <v>0.0202338556505223</v>
+        <v>0.0227154204491161</v>
       </c>
       <c r="L2">
-        <v>0.0015275563798911</v>
+        <v>-0.0074708185832153</v>
       </c>
       <c r="M2">
-        <v>0.0313336566751036</v>
+        <v>0.0457329793743762</v>
       </c>
       <c r="N2">
-        <v>20.2338556505223</v>
+        <v>15.4002850502482</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>1806649.9</v>
@@ -719,7 +719,7 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.587517215582505</v>
+        <v>0.023269790423503</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,25 +731,25 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.27</v>
+        <v>10.355</v>
       </c>
       <c r="K3">
-        <v>0.0074983392631961</v>
+        <v>-0.0549260694662478</v>
       </c>
       <c r="L3">
-        <v>-0.0401373626373627</v>
+        <v>-0.149409829070791</v>
       </c>
       <c r="M3">
-        <v>0.13145854396591</v>
+        <v>-0.0262134010960782</v>
       </c>
       <c r="N3">
-        <v>0.07301206682761539</v>
+        <v>-0.530430414932378</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1806649.9</v>
@@ -790,7 +790,7 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.139725751656726</v>
+        <v>0.373567700716993</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -802,25 +802,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.019</v>
+        <v>0.0185</v>
       </c>
       <c r="K4">
-        <v>0.0009595008756567</v>
+        <v>0.0002608928571428</v>
       </c>
       <c r="L4">
-        <v>-0.000467538209242</v>
+        <v>-0.0014475861588237</v>
       </c>
       <c r="M4">
-        <v>0.0025533252280621</v>
+        <v>0.0019564819890102</v>
       </c>
       <c r="N4">
-        <v>5.0500046087197</v>
+        <v>1.41023166023166</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1806649.9</v>
@@ -858,40 +858,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>0.616071025920284</v>
+        <v>0.8743387424294909</v>
       </c>
       <c r="G5">
         <v>0.0172413793103448</v>
       </c>
       <c r="H5">
-        <v>0.931034482758621</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>361.5</v>
+        <v>346</v>
       </c>
       <c r="K5">
-        <v>-9.46004421983575</v>
+        <v>-33.6635944700461</v>
       </c>
       <c r="L5">
-        <v>-63.8884125161015</v>
+        <v>-86.81940331790049</v>
       </c>
       <c r="M5">
-        <v>40.2357002869938</v>
+        <v>15.9785454596203</v>
       </c>
       <c r="N5">
-        <v>-2.61688636786605</v>
+        <v>-9.72936256359713</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q5">
         <v>1806649.9</v>
@@ -932,34 +932,34 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>0.0433404224733468</v>
+        <v>0.0226252254363689</v>
       </c>
       <c r="G6">
-        <v>0.230769230769231</v>
+        <v>0.203703703703704</v>
       </c>
       <c r="H6">
-        <v>0.788461538461538</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0235469823114104</v>
+        <v>0.0344258191504393</v>
       </c>
       <c r="K6">
-        <v>0.0018120205769524</v>
+        <v>0.0034136521776515</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0048557873592782</v>
+        <v>0.010525223869355</v>
       </c>
       <c r="N6">
-        <v>7.69534096976149</v>
+        <v>9.91596499921771</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
         <v>43</v>
@@ -1000,13 +1000,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>0.0820378700522528</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.137931034482759</v>
+        <v>0.172413793103448</v>
       </c>
       <c r="H7">
         <v>0.568965517241379</v>
@@ -1015,25 +1015,25 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.011</v>
+        <v>0.0105</v>
       </c>
       <c r="K7">
-        <v>0.0006665234765234</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-0.0006672497892212</v>
       </c>
       <c r="M7">
-        <v>0.0010017316885842</v>
+        <v>0.0008790473243624</v>
       </c>
       <c r="N7">
-        <v>6.0593043320316</v>
+        <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q7">
         <v>1806649.9</v>
@@ -1074,37 +1074,37 @@
         <v>37</v>
       </c>
       <c r="F8">
-        <v>0.0057274442052447</v>
+        <v>0.274002786180655</v>
       </c>
       <c r="G8">
-        <v>0.137931034482759</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="H8">
-        <v>0.862068965517241</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.5335</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K8">
-        <v>0.0435657623626373</v>
+        <v>0.0056893271202481</v>
       </c>
       <c r="L8">
-        <v>0.0166916441846185</v>
+        <v>-0.0170037615512558</v>
       </c>
       <c r="M8">
-        <v>0.07755186276344871</v>
+        <v>0.0454228949836775</v>
       </c>
       <c r="N8">
-        <v>8.16602855906979</v>
+        <v>1.01595127147289</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <v>1806649.9</v>
@@ -1145,37 +1145,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.067454127771573</v>
+        <v>0.39940959685528</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.649122807017544</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.64</v>
+        <v>7.66</v>
       </c>
       <c r="K9">
-        <v>-0.021153474903475</v>
+        <v>-0.0050382419115974</v>
       </c>
       <c r="L9">
-        <v>-0.0529129595288439</v>
+        <v>-0.0333750686691788</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0303720889528161</v>
       </c>
       <c r="N9">
-        <v>-0.276877943762761</v>
+        <v>-0.0657733931017938</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1806649.9</v>
@@ -1210,40 +1210,40 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>0.0045437337262196</v>
+        <v>0.0273044326160703</v>
       </c>
       <c r="G10">
-        <v>0.0344827586206897</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H10">
-        <v>0.931034482758621</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0.6565</v>
+        <v>0.644</v>
       </c>
       <c r="K10">
-        <v>0.0432385624428794</v>
+        <v>0.0411941912232351</v>
       </c>
       <c r="L10">
-        <v>0.0126144515017673</v>
+        <v>0.0031362307358859</v>
       </c>
       <c r="M10">
-        <v>0.0807834709556227</v>
+        <v>0.0702043666121451</v>
       </c>
       <c r="N10">
-        <v>6.5862242868057</v>
+        <v>6.3966135439806</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q10">
         <v>1806649.9</v>
@@ -1284,13 +1284,13 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.0005367986363365</v>
+        <v>0.0319323445539795</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.827586206896552</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0.865</v>
       </c>
       <c r="K11">
-        <v>0.0512999664808875</v>
+        <v>0.0516736587457129</v>
       </c>
       <c r="L11">
-        <v>0.0130832668308389</v>
+        <v>0.0089083165065201</v>
       </c>
       <c r="M11">
-        <v>0.09780012776040729</v>
+        <v>0.0978831196773379</v>
       </c>
       <c r="N11">
-        <v>5.93063196310839</v>
+        <v>5.97383338100727</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q11">
         <v>1806649.9</v>
@@ -1352,40 +1352,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>0.312112814963759</v>
+        <v>0.51873494107905</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.793103448275862</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.054</v>
+        <v>0.0485</v>
       </c>
       <c r="K12">
-        <v>0.0011660015961691</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.0054711676192384</v>
+        <v>-0.0050186060495515</v>
       </c>
       <c r="M12">
-        <v>0.0065243612827697</v>
+        <v>0.004310091815546</v>
       </c>
       <c r="N12">
-        <v>2.15926221512814</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12">
         <v>1806649.9</v>
@@ -1426,7 +1426,7 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.486621711362125</v>
+        <v>0.266360840553402</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1438,25 +1438,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.235</v>
+        <v>6.24</v>
       </c>
       <c r="K13">
-        <v>0.0489939637826962</v>
+        <v>0.316332589285714</v>
       </c>
       <c r="L13">
-        <v>-1.44593147815188</v>
+        <v>-0.664985096891299</v>
       </c>
       <c r="M13">
-        <v>1.08601661798395</v>
+        <v>1.35704975671567</v>
       </c>
       <c r="N13">
-        <v>0.785789314878849</v>
+        <v>5.0694325206044</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>1806649.9</v>
@@ -1497,37 +1497,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.0053986104372459</v>
+        <v>0.003873022784298</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.670886075949367</v>
+        <v>0.705128205128205</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.19</v>
+        <v>0.205</v>
       </c>
       <c r="K14">
-        <v>-0.030103021978022</v>
+        <v>-0.0295350404312668</v>
       </c>
       <c r="L14">
-        <v>-0.0649441563173456</v>
+        <v>-0.0526802884615385</v>
       </c>
       <c r="M14">
-        <v>-0.0059590518362779</v>
+        <v>-0.0087248970692082</v>
       </c>
       <c r="N14">
-        <v>-15.8436957779063</v>
+        <v>-14.4073367957399</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q14">
         <v>1806649.9</v>
@@ -1568,34 +1568,34 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.982776681833361</v>
+        <v>0.937390780056097</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.8050847457627121</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.1</v>
+        <v>10.12</v>
       </c>
       <c r="K15">
-        <v>0.0328754608511003</v>
+        <v>0.0199726589200274</v>
       </c>
       <c r="L15">
-        <v>0.004834192955936</v>
+        <v>-0.001642566768002</v>
       </c>
       <c r="M15">
-        <v>0.073116469517743</v>
+        <v>0.051406120725224</v>
       </c>
       <c r="N15">
-        <v>0.325499612387132</v>
+        <v>0.197358289723591</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
         <v>47</v>
@@ -1639,37 +1639,37 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.0010499107781552</v>
+        <v>0.133872358534871</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.389830508474576</v>
+        <v>0.38135593220339</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.017</v>
+        <v>0.0175</v>
       </c>
       <c r="K16">
-        <v>0.0009798792756539</v>
+        <v>0.0003377253814147</v>
       </c>
       <c r="L16">
-        <v>0.0004839618989113</v>
+        <v>-0.000140439800724</v>
       </c>
       <c r="M16">
-        <v>0.0014539899617018</v>
+        <v>0.0008674846651908</v>
       </c>
       <c r="N16">
-        <v>5.76399573914073</v>
+        <v>1.92985932236972</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q16">
         <v>1806649.9</v>
@@ -1710,34 +1710,34 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.615273763322752</v>
+        <v>0.63204862790301</v>
       </c>
       <c r="G17">
         <v>0.0169491525423729</v>
       </c>
       <c r="H17">
-        <v>0.813559322033898</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
-        <v>363.5</v>
+        <v>360</v>
       </c>
       <c r="K17">
-        <v>-2.9958988380041</v>
+        <v>-2.92709059233451</v>
       </c>
       <c r="L17">
-        <v>-20.8844144774453</v>
+        <v>-21.0842345095142</v>
       </c>
       <c r="M17">
-        <v>15.8814248407927</v>
+        <v>14.14832714006</v>
       </c>
       <c r="N17">
-        <v>-0.824181248419285</v>
+        <v>-0.813080720092919</v>
       </c>
       <c r="O17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
         <v>42</v>
@@ -1775,43 +1775,43 @@
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
       </c>
       <c r="F18">
-        <v>8.11423816161944E-05</v>
+        <v>0.0014180663278273</v>
       </c>
       <c r="G18">
-        <v>0.309090909090909</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="H18">
-        <v>0.7</v>
+        <v>0.736363636363636</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
-        <v>0.0231323165304086</v>
+        <v>0.0288019446284302</v>
       </c>
       <c r="K18">
-        <v>0.002361001325826</v>
+        <v>0.0018785278325914</v>
       </c>
       <c r="L18">
-        <v>0.0009325267902694</v>
+        <v>0.0002375158143211</v>
       </c>
       <c r="M18">
-        <v>0.0041498170451292</v>
+        <v>0.003764904775079</v>
       </c>
       <c r="N18">
-        <v>10.2065062213825</v>
+        <v>6.52222569283445</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18">
         <v>1806649.9</v>
@@ -1846,40 +1846,40 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
       </c>
       <c r="F19">
-        <v>0.9985567887685</v>
+        <v>0.999155455492707</v>
       </c>
       <c r="G19">
-        <v>0.0677966101694915</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="H19">
-        <v>0.491525423728814</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.0185</v>
+        <v>0.016</v>
       </c>
       <c r="K19">
-        <v>-0.0016204525288376</v>
+        <v>-0.0012321586057787</v>
       </c>
       <c r="L19">
-        <v>-0.0026635978552259</v>
+        <v>-0.0026448751279471</v>
       </c>
       <c r="M19">
-        <v>-0.0007490989293154</v>
+        <v>-0.0006652875344857</v>
       </c>
       <c r="N19">
-        <v>-8.759202858581739</v>
+        <v>-7.70099128611687</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
         <v>48</v>
@@ -1923,37 +1923,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.9032290548540231</v>
+        <v>0.992191140528523</v>
       </c>
       <c r="G20">
-        <v>0.0677966101694915</v>
+        <v>0.076271186440678</v>
       </c>
       <c r="H20">
-        <v>0.906779661016949</v>
+        <v>0.889830508474576</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.6105</v>
+        <v>0.6165</v>
       </c>
       <c r="K20">
-        <v>-0.0116110008525957</v>
+        <v>-0.0221469661095484</v>
       </c>
       <c r="L20">
-        <v>-0.0309019876523765</v>
+        <v>-0.0393831170056234</v>
       </c>
       <c r="M20">
-        <v>0.0010552529117822</v>
+        <v>-0.0041825601800722</v>
       </c>
       <c r="N20">
-        <v>-1.90188384153901</v>
+        <v>-3.59237082068911</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q20">
         <v>1806649.9</v>
@@ -1994,37 +1994,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.999319835285892</v>
+        <v>0.99663905878772</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.512820512820513</v>
+        <v>0.521367521367521</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.6</v>
+        <v>7.61</v>
       </c>
       <c r="K21">
-        <v>0.0180472243390033</v>
+        <v>0.0163899558214413</v>
       </c>
       <c r="L21">
-        <v>0.008699795342110499</v>
+        <v>0.0064818101153503</v>
       </c>
       <c r="M21">
-        <v>0.0274624060150375</v>
+        <v>0.0263597156207963</v>
       </c>
       <c r="N21">
-        <v>0.237463478144781</v>
+        <v>0.215373926694367</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q21">
         <v>1806649.9</v>
@@ -2059,40 +2059,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22">
-        <v>0.573428644334762</v>
+        <v>0.778424914987187</v>
       </c>
       <c r="G22">
         <v>0.0169491525423729</v>
       </c>
       <c r="H22">
-        <v>0.898305084745763</v>
+        <v>0.889830508474576</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22">
-        <v>0.71375</v>
+        <v>0.7255</v>
       </c>
       <c r="K22">
-        <v>-0.0027594436813186</v>
+        <v>-0.0060838344874303</v>
       </c>
       <c r="L22">
-        <v>-0.0224694447702903</v>
+        <v>-0.0225124997353194</v>
       </c>
       <c r="M22">
-        <v>0.0147578235942551</v>
+        <v>0.0070759991073541</v>
       </c>
       <c r="N22">
-        <v>-0.386612074440442</v>
+        <v>-0.838571259466629</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q22">
         <v>1806649.9</v>
@@ -2133,37 +2133,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.897758519250512</v>
+        <v>0.9849658963368</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.754237288135593</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.02</v>
+        <v>1.035</v>
       </c>
       <c r="K23">
-        <v>-0.0251229649631191</v>
+        <v>-0.0299426827465238</v>
       </c>
       <c r="L23">
-        <v>-0.0422622330113465</v>
+        <v>-0.0461958059145998</v>
       </c>
       <c r="M23">
-        <v>0.0056831409884656</v>
+        <v>-0.0066297062086141</v>
       </c>
       <c r="N23">
-        <v>-2.46303578069795</v>
+        <v>-2.8930128257511</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q23">
         <v>1806649.9</v>
@@ -2204,7 +2204,7 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.223417010183795</v>
+        <v>0.582012228939381</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2216,25 +2216,25 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.055</v>
+        <v>0.0545</v>
       </c>
       <c r="K24">
-        <v>0.000741875423155</v>
+        <v>-0.0002147266313932</v>
       </c>
       <c r="L24">
-        <v>-0.0010649702486801</v>
+        <v>-0.0021116246261715</v>
       </c>
       <c r="M24">
-        <v>0.0026758241758241</v>
+        <v>0.0014141007048607</v>
       </c>
       <c r="N24">
-        <v>1.34886440573644</v>
+        <v>-0.393993819070272</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q24">
         <v>1806649.9</v>
@@ -2275,7 +2275,7 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.289599497087188</v>
+        <v>0.0890260774305644</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.825</v>
+        <v>6.69</v>
       </c>
       <c r="K25">
-        <v>0.0863731823133763</v>
+        <v>0.264608403094547</v>
       </c>
       <c r="L25">
-        <v>-0.284224134821598</v>
+        <v>-0.0636163126261491</v>
       </c>
       <c r="M25">
-        <v>0.424602234862651</v>
+        <v>0.511517396400719</v>
       </c>
       <c r="N25">
-        <v>1.10381063659267</v>
+        <v>3.95528255746707</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Q25">
         <v>1806649.9</v>
